--- a/plan de test.xlsx
+++ b/plan de test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>fichier JS</t>
   </si>
@@ -30,9 +30,6 @@
     <t>résultat attendu</t>
   </si>
   <si>
-    <t>probleme possible</t>
-  </si>
-  <si>
     <t>Comment vérifier le resultat attendu</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>loadeConfig ()</t>
   </si>
   <si>
-    <t xml:space="preserve">URL erroné / connection au serveur  / erreur back-end </t>
-  </si>
-  <si>
     <t>articleDisplay ()</t>
   </si>
   <si>
@@ -57,19 +51,7 @@
     <t xml:space="preserve">la page HTML index affiche les articles  /  </t>
   </si>
   <si>
-    <t xml:space="preserve">nom de classe  /  erreur sur fonction LoadConfig </t>
-  </si>
-  <si>
     <t>PRODUIT.JS</t>
-  </si>
-  <si>
-    <t>activer ligne 3 : console.log(recupererChaineDeRequetteUrlId);</t>
-  </si>
-  <si>
-    <t>activer ligne 18: console.table(teddiesData); qui affiche le tableau des articles "Teddies"</t>
-  </si>
-  <si>
-    <t>5 à 6</t>
   </si>
   <si>
     <t>IdProduit</t>
@@ -122,9 +104,6 @@
     </r>
   </si>
   <si>
-    <t>activer ligne  7 : console.log(IdProduit);</t>
-  </si>
-  <si>
     <t>13 à 150</t>
   </si>
   <si>
@@ -150,66 +129,12 @@
     <t>la page HTML produit affiche l'article choisis</t>
   </si>
   <si>
-    <t>erreur API</t>
-  </si>
-  <si>
-    <t>erreur URL</t>
-  </si>
-  <si>
-    <t>15 à 30</t>
-  </si>
-  <si>
     <t>fetch()</t>
   </si>
   <si>
     <t>récupération de l'objet contenant les caracteristiques du produit choisis via l'appel FETCH</t>
   </si>
   <si>
-    <t xml:space="preserve">activer ligne 30 : console.log(article); </t>
-  </si>
-  <si>
-    <t>32 à 33</t>
-  </si>
-  <si>
-    <t>boucle FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activer ligne 33 : console.log(`${property}: ${article[property]}`); </t>
-  </si>
-  <si>
-    <t>chaque  carasteristiques individuelle du produit choisis</t>
-  </si>
-  <si>
-    <t>33 à 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affichage dans le DOM du produit et de chaque carracteristique </t>
-  </si>
-  <si>
-    <t>76 à 84</t>
-  </si>
-  <si>
-    <t>optionColorSelect ()</t>
-  </si>
-  <si>
-    <t>affichage de toutes les couleurs pouvant être choisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activer ligne 83 : console.log(colorSelect); </t>
-  </si>
-  <si>
-    <t>94 à 148</t>
-  </si>
-  <si>
-    <t>envoyerPanier.addEventListener("click", …</t>
-  </si>
-  <si>
-    <t>au click du boutton "ajouter au panier " création de l'objet contenant les choix du client + envoie eu localStorage de l'objet au format JSON</t>
-  </si>
-  <si>
-    <t>création de l'objet choix (products) : affichage ligne 102 : console.log(productOptionPourPanier)///  objet format JSON : affichage ligne 129 : console.log(produitPourLocalStorage); ///  envoie au localStorage : affichage dans la console du localSTORAGE</t>
-  </si>
-  <si>
     <t>PANIER.JS</t>
   </si>
   <si>
@@ -222,88 +147,290 @@
     <t>affichage ligne 3 : console.log(produitPourLocalStorage)</t>
   </si>
   <si>
-    <t>10 à 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if panier vide </t>
-  </si>
-  <si>
     <t>affichage page HTML panier "votre panier est vide"</t>
   </si>
   <si>
-    <t xml:space="preserve">affichage page HTML panier "votre panier est vide" </t>
-  </si>
-  <si>
-    <t>18 à 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esle: boucle for </t>
-  </si>
-  <si>
-    <t>affichage de la page HTML panier des produit chisis par le client +  affichage ligne 41 : console.log(lesProduits)</t>
-  </si>
-  <si>
     <t>affichage dans le DOM  des produits selectionés par le client + les objets des produits choisis</t>
   </si>
   <si>
-    <t>47 à 65</t>
-  </si>
-  <si>
-    <t>boucle FOR de supression article</t>
-  </si>
-  <si>
-    <t>apuyer sur le bouton "suprimer l'article" = supression de l'article</t>
-  </si>
-  <si>
-    <t>suppression de l'article dans la page HTML + affichage dans la console du localStorage et article supprimer</t>
-  </si>
-  <si>
-    <t>67 à 74</t>
-  </si>
-  <si>
-    <t>btnViderPanier.addEventListener("click",</t>
-  </si>
-  <si>
     <t>suppression de tout les articles dans le DOM + suppression de tout les articles dans le localStorage</t>
   </si>
   <si>
-    <t>suppression de tout les articles dans la page HTML + affichage dans la console du localStorage et article supprimer + affichage ligne 73 : console.log(produitPourLocalStorage)</t>
-  </si>
-  <si>
-    <t>111 à 124</t>
-  </si>
-  <si>
-    <t>91 à 108</t>
-  </si>
-  <si>
-    <t>teste formulaire</t>
-  </si>
-  <si>
-    <t>affichage d'une alerte lorsque le renseignement attendu n'est pas le bon</t>
-  </si>
-  <si>
-    <t>test sur la page HTML en renseignat le formulaire</t>
-  </si>
-  <si>
-    <t>au click du bouton envois du formulaire = mise en localStorage</t>
-  </si>
-  <si>
-    <t>btnSubmit.addEventListener("click", …</t>
-  </si>
-  <si>
-    <t>affichage dans la console de l'objet contact dans le localStrorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FETCH / POST sur serveur </t>
-  </si>
-  <si>
-    <t>envoie au serveur des donnée "contact" et "products" + reception de la réponse "prix total" et "n° commande" (ID)</t>
-  </si>
-  <si>
-    <t>4 à 20</t>
-  </si>
-  <si>
-    <t>24 à 46</t>
+    <t>4 à 24</t>
+  </si>
+  <si>
+    <t>activer ligne 23: console.table(teddiesData); qui affiche le tableau des articles "Teddies"</t>
+  </si>
+  <si>
+    <t>27 à 54</t>
+  </si>
+  <si>
+    <t>activer ligne 2 : console.log(recupererChaineDeRequetteUrlId);</t>
+  </si>
+  <si>
+    <t>3 à 6</t>
+  </si>
+  <si>
+    <t>activer ligne  6 : console.log(IdProduit);</t>
+  </si>
+  <si>
+    <t>13 à 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activer ligne 28 : console.log(article); </t>
+  </si>
+  <si>
+    <t>29 à 57</t>
+  </si>
+  <si>
+    <t>boucle FOR IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaque  carasteristiques individuelle du produit choisis + affichage dans le DOM du produit et de chaque carracteristique </t>
+  </si>
+  <si>
+    <t>activer ligne 30 : console.log(`${property}: ${article[property]}`);   +    affichage dans la page de l'article</t>
+  </si>
+  <si>
+    <t>optionColorSelect () boucle FOR               quantity</t>
+  </si>
+  <si>
+    <t>66 à 76</t>
+  </si>
+  <si>
+    <t>affichage dans le DOM de chaques carracteristiques couleur et quantité</t>
+  </si>
+  <si>
+    <t>activer ligne 63 et 64 : console.log(colorOfArticle);  console.log(colorSelect);       +        la page HTML produit affiche les tags "select" et "input - number"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let productOptionPourPanier = {} 
+</t>
+  </si>
+  <si>
+    <t>toutes les valeurs du produit</t>
+  </si>
+  <si>
+    <t>activer ligne 92 :  console.log(productOptionPourPanier);</t>
+  </si>
+  <si>
+    <t>95 à 105</t>
+  </si>
+  <si>
+    <t>popupConfirmationPanier () ;</t>
+  </si>
+  <si>
+    <t>popup de confirmation contenant un résumé des choix, du prix total … +  redirection soit au panier soit a la page d'acceuil</t>
+  </si>
+  <si>
+    <t>83 à 91</t>
+  </si>
+  <si>
+    <t>79 à 134</t>
+  </si>
+  <si>
+    <t>envoyerPanier.addEventListener("click", €{});</t>
+  </si>
+  <si>
+    <t>ajoutProduitLocalStorage = ()</t>
+  </si>
+  <si>
+    <t>108 à 111</t>
+  </si>
+  <si>
+    <t>envoie au localStorage l'ajout d'un article dans le tableau "produts"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activer ligne 114 : console.log(produitPourLocalStorage);                   +  affichage du localStorage dans :  console / application </t>
+  </si>
+  <si>
+    <t>117 à 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF ELSE </t>
+  </si>
+  <si>
+    <t>créé un tableau dans le local storage ou ajoutr le produit dans le tableau déjà present dans le localStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage du localStorage dans :  console / application </t>
+  </si>
+  <si>
+    <t>11 à 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF  panier vide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage du localStorage dans :  console / application     +             affichage page HTML panier "votre panier est vide" </t>
+  </si>
+  <si>
+    <t>affichage de la page HTML panier des produit chisis par le client       +       affichage ligne 43 : console.log(lesProduits)</t>
+  </si>
+  <si>
+    <t>22 à 45</t>
+  </si>
+  <si>
+    <t>ELSE  =   boucle FOR  OF</t>
+  </si>
+  <si>
+    <t>8 à 47</t>
+  </si>
+  <si>
+    <t>panierDisplay();</t>
+  </si>
+  <si>
+    <t>affichage dans le DOM des tout les articles choisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage dans la page  +  vérification des fonction suivantes… IF  ELSE </t>
+  </si>
+  <si>
+    <t>supArticle();</t>
+  </si>
+  <si>
+    <t>apuyer sur le bouton "suprimer l'article" = supression de l'article dans le DOM et dans le localStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppression de l'article dans la page HTML + affichage dans la console du localStorage </t>
+  </si>
+  <si>
+    <t>50 à 67</t>
+  </si>
+  <si>
+    <t>viderPanier();</t>
+  </si>
+  <si>
+    <t>69 à 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppression de tout les articles dans la page HTML + affichage dans la console du localStorage et article supprimer </t>
+  </si>
+  <si>
+    <t>total();</t>
+  </si>
+  <si>
+    <t>82 à 95</t>
+  </si>
+  <si>
+    <t>affichage dans le DOM et envoie au localSotarge du prix total du panier</t>
+  </si>
+  <si>
+    <t>affichage à la page du prix total    activer ligne 96 : console.log(prixTotalPanier);</t>
+  </si>
+  <si>
+    <t>99 à 118</t>
+  </si>
+  <si>
+    <t>leFormulaire();</t>
+  </si>
+  <si>
+    <t>affichage dans le DOM du formulaire</t>
+  </si>
+  <si>
+    <t>affichage dans la page du formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 à 124 </t>
+  </si>
+  <si>
+    <t>mise en variables des input recupérés</t>
+  </si>
+  <si>
+    <t>toutes les valeurs sont là</t>
+  </si>
+  <si>
+    <t>activer ligne 9126 à 130 : console.log();</t>
+  </si>
+  <si>
+    <t>132 à 140</t>
+  </si>
+  <si>
+    <t>addEventListener("input", function €{});</t>
+  </si>
+  <si>
+    <t>si les valeurs demandées par le formulaire sont true, le bouton evoyer est activé</t>
+  </si>
+  <si>
+    <t>test de differentes réponses au formulaire. Si ce n'est pas accepter, le box-shadow reste rouge et si tout est rensigné correctement le bouton s'active et permet de passer la commande</t>
+  </si>
+  <si>
+    <t>142 à 191</t>
+  </si>
+  <si>
+    <t>envoiAuClick();</t>
+  </si>
+  <si>
+    <t>action d'envoie du contact et d'un tableau des ID des produits chosis +  reception de la reponse en retour de l'OrderId</t>
+  </si>
+  <si>
+    <t>143 à 153</t>
+  </si>
+  <si>
+    <t>const contact =</t>
+  </si>
+  <si>
+    <t>récupération des tout les renseignement du formulaire</t>
+  </si>
+  <si>
+    <t>156 à 163</t>
+  </si>
+  <si>
+    <t>tabAEnvoyer();          const products = [];</t>
+  </si>
+  <si>
+    <t>le tableau "products" contien tout les ID des produit commandés</t>
+  </si>
+  <si>
+    <t>vérification des fonction suivantes…  +    mise en commantaire de la ligne 190 : window.location.href = "./confirmation.html"; (pour rester sur le panier )</t>
+  </si>
+  <si>
+    <t>activer ligne 170 : console.log(products);</t>
+  </si>
+  <si>
+    <t>activer ligne 169 : console.log(contact);</t>
+  </si>
+  <si>
+    <t>171 à189</t>
+  </si>
+  <si>
+    <t>postOrder();</t>
+  </si>
+  <si>
+    <t>envoie au server les valeurs attendu par celui-ci et recois un OrderId de N° de commande</t>
+  </si>
+  <si>
+    <t>affichage dans la cobcole  du localStrage et vérifiers des données</t>
+  </si>
+  <si>
+    <t>affichage du popup dans la page</t>
+  </si>
+  <si>
+    <t>ne pas oublier de réactiver la ligne 190 : window.location.href = "./confirmation.html";</t>
+  </si>
+  <si>
+    <t>CONFIRMATION.JS</t>
+  </si>
+  <si>
+    <t>let Order =                                                let montantTotal =</t>
+  </si>
+  <si>
+    <t>récupération des valeurs dans le localStorage</t>
+  </si>
+  <si>
+    <t>1 à 6</t>
+  </si>
+  <si>
+    <t>affichage correct das le DOM    +   activer ligne 10 et 11 : les console.log();</t>
+  </si>
+  <si>
+    <t>localStorage.clear();</t>
+  </si>
+  <si>
+    <t>localStorage vidé</t>
+  </si>
+  <si>
+    <t>affichage à la console application du localStorage et vérifier</t>
   </si>
 </sst>
 </file>
@@ -344,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,6 +540,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,24 +862,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,390 +892,562 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="21" customFormat="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="45">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="47.25" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="15" customFormat="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="168" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" s="12" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="12" t="s">
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="E22" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    <row r="23" spans="1:5" s="12" customFormat="1" ht="87" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="12" customFormat="1"/>
-    <row r="23" spans="1:6" s="12" customFormat="1"/>
-    <row r="24" spans="1:6" s="12" customFormat="1"/>
-    <row r="25" spans="1:6" s="12" customFormat="1"/>
-    <row r="26" spans="1:6" s="12" customFormat="1"/>
-    <row r="27" spans="1:6" s="12" customFormat="1"/>
-    <row r="28" spans="1:6" s="12" customFormat="1"/>
-    <row r="29" spans="1:6" s="12" customFormat="1"/>
-    <row r="30" spans="1:6" s="12" customFormat="1"/>
-    <row r="31" spans="1:6" s="5" customFormat="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="12" customFormat="1" ht="87" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="12" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="12" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="12" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="12" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="12" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="12" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="12" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="17" customFormat="1"/>
+    <row r="34" spans="1:5" s="12" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="12" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="18">
+        <v>8</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="12" customFormat="1"/>
+    <row r="37" spans="1:5" s="12" customFormat="1"/>
+    <row r="38" spans="1:5" s="12" customFormat="1"/>
+    <row r="39" spans="1:5" s="5" customFormat="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
